--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_64ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_64ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
@@ -1702,28 +1702,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>300.1548839776851</v>
+        <v>341.8128207960083</v>
       </c>
       <c r="AB2" t="n">
-        <v>410.6851541571846</v>
+        <v>467.6833811304802</v>
       </c>
       <c r="AC2" t="n">
-        <v>371.4899394446561</v>
+        <v>423.0483356331344</v>
       </c>
       <c r="AD2" t="n">
-        <v>300154.8839776851</v>
+        <v>341812.8207960083</v>
       </c>
       <c r="AE2" t="n">
-        <v>410685.1541571846</v>
+        <v>467683.3811304802</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.592121190932638e-06</v>
+        <v>4.382109484477865e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.816840277777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>371489.9394446561</v>
+        <v>423048.3356331344</v>
       </c>
     </row>
     <row r="3">
@@ -1808,28 +1808,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>150.4393489232423</v>
+        <v>171.2684068409547</v>
       </c>
       <c r="AB3" t="n">
-        <v>205.8377541123526</v>
+        <v>234.3369900685341</v>
       </c>
       <c r="AC3" t="n">
-        <v>186.1928877550306</v>
+        <v>211.9721966304921</v>
       </c>
       <c r="AD3" t="n">
-        <v>150439.3489232423</v>
+        <v>171268.4068409547</v>
       </c>
       <c r="AE3" t="n">
-        <v>205837.7541123526</v>
+        <v>234336.9900685341</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.04676399447442e-06</v>
+        <v>6.841255317715092e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.006510416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>186192.8877550306</v>
+        <v>211972.1966304921</v>
       </c>
     </row>
     <row r="4">
@@ -1914,28 +1914,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>139.4488754722011</v>
+        <v>170.6069872313716</v>
       </c>
       <c r="AB4" t="n">
-        <v>190.800103471177</v>
+        <v>233.4320065789291</v>
       </c>
       <c r="AC4" t="n">
-        <v>172.5904093855688</v>
+        <v>211.1535834949825</v>
       </c>
       <c r="AD4" t="n">
-        <v>139448.8754722012</v>
+        <v>170606.9872313716</v>
       </c>
       <c r="AE4" t="n">
-        <v>190800.103471177</v>
+        <v>233432.0065789291</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.060488801414128e-06</v>
+        <v>6.864457784819448e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.989149305555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>172590.4093855688</v>
+        <v>211153.5834949825</v>
       </c>
     </row>
   </sheetData>
@@ -2211,28 +2211,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>209.4705580781602</v>
+        <v>239.6570102637197</v>
       </c>
       <c r="AB2" t="n">
-        <v>286.6068587512183</v>
+        <v>327.9092943637614</v>
       </c>
       <c r="AC2" t="n">
-        <v>259.253502407339</v>
+        <v>296.6140915333667</v>
       </c>
       <c r="AD2" t="n">
-        <v>209470.5580781602</v>
+        <v>239657.0102637197</v>
       </c>
       <c r="AE2" t="n">
-        <v>286606.8587512183</v>
+        <v>327909.2943637614</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.23021735117156e-06</v>
+        <v>5.594061360974768e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.488715277777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>259253.502407339</v>
+        <v>296614.0915333666</v>
       </c>
     </row>
     <row r="3">
@@ -2317,28 +2317,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>143.8126429030864</v>
+        <v>163.9938680993574</v>
       </c>
       <c r="AB3" t="n">
-        <v>196.7708025859431</v>
+        <v>224.3836452322864</v>
       </c>
       <c r="AC3" t="n">
-        <v>177.9912733567524</v>
+        <v>202.9687850558055</v>
       </c>
       <c r="AD3" t="n">
-        <v>143812.6429030864</v>
+        <v>163993.8680993574</v>
       </c>
       <c r="AE3" t="n">
-        <v>196770.8025859431</v>
+        <v>224383.6452322864</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.097944676937774e-06</v>
+        <v>7.096783740684053e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.115017361111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>177991.2733567524</v>
+        <v>202968.7850558055</v>
       </c>
     </row>
   </sheetData>
@@ -2614,28 +2614,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>146.1971694241307</v>
+        <v>173.4580149162559</v>
       </c>
       <c r="AB2" t="n">
-        <v>200.03341696992</v>
+        <v>237.3329084358503</v>
       </c>
       <c r="AC2" t="n">
-        <v>180.9425084030316</v>
+        <v>214.6821887536305</v>
       </c>
       <c r="AD2" t="n">
-        <v>146197.1694241307</v>
+        <v>173458.0149162559</v>
       </c>
       <c r="AE2" t="n">
-        <v>200033.41696992</v>
+        <v>237332.9084358503</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.885207807404914e-06</v>
+        <v>7.35164922838855e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.019965277777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>180942.5084030316</v>
+        <v>214682.1887536305</v>
       </c>
     </row>
   </sheetData>
@@ -2911,28 +2911,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>136.899779575408</v>
+        <v>165.389671912325</v>
       </c>
       <c r="AB2" t="n">
-        <v>187.3123180070124</v>
+        <v>226.2934455877061</v>
       </c>
       <c r="AC2" t="n">
-        <v>169.4354932709653</v>
+        <v>204.6963167457262</v>
       </c>
       <c r="AD2" t="n">
-        <v>136899.779575408</v>
+        <v>165389.671912325</v>
       </c>
       <c r="AE2" t="n">
-        <v>187312.3180070124</v>
+        <v>226293.4455877061</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.052051440606256e-06</v>
+        <v>7.381957721404138e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.523003472222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>169435.4932709653</v>
+        <v>204696.3167457262</v>
       </c>
     </row>
   </sheetData>
@@ -3208,28 +3208,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>150.3837341314007</v>
+        <v>185.5089931450979</v>
       </c>
       <c r="AB2" t="n">
-        <v>205.7616595006035</v>
+        <v>253.8215885001811</v>
       </c>
       <c r="AC2" t="n">
-        <v>186.1240555062274</v>
+        <v>229.5972123346345</v>
       </c>
       <c r="AD2" t="n">
-        <v>150383.7341314007</v>
+        <v>185508.9931450979</v>
       </c>
       <c r="AE2" t="n">
-        <v>205761.6595006035</v>
+        <v>253821.5885001811</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.619839414882523e-06</v>
+        <v>7.093718939217381e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.710069444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>186124.0555062274</v>
+        <v>229597.2123346346</v>
       </c>
     </row>
   </sheetData>
@@ -3505,28 +3505,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>226.8085490587617</v>
+        <v>267.4260341642571</v>
       </c>
       <c r="AB2" t="n">
-        <v>310.3294629090435</v>
+        <v>365.9040979475037</v>
       </c>
       <c r="AC2" t="n">
-        <v>280.712054519233</v>
+        <v>330.9827243890201</v>
       </c>
       <c r="AD2" t="n">
-        <v>226808.5490587617</v>
+        <v>267426.0341642572</v>
       </c>
       <c r="AE2" t="n">
-        <v>310329.4629090435</v>
+        <v>365904.0979475037</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.059346121115572e-06</v>
+        <v>5.263547507972789e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.790364583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>280712.054519233</v>
+        <v>330982.7243890201</v>
       </c>
     </row>
     <row r="3">
@@ -3611,28 +3611,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>145.327086391565</v>
+        <v>165.6785888801479</v>
       </c>
       <c r="AB3" t="n">
-        <v>198.8429309794098</v>
+        <v>226.6887545291981</v>
       </c>
       <c r="AC3" t="n">
-        <v>179.8656407245978</v>
+        <v>205.0538979566619</v>
       </c>
       <c r="AD3" t="n">
-        <v>145327.086391565</v>
+        <v>165678.5888801479</v>
       </c>
       <c r="AE3" t="n">
-        <v>198842.9309794098</v>
+        <v>226688.7545291981</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.089561448741092e-06</v>
+        <v>7.036013618613896e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.080295138888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>179865.6407245978</v>
+        <v>205053.8979566619</v>
       </c>
     </row>
   </sheetData>
@@ -3908,28 +3908,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>164.3794414282041</v>
+        <v>198.6787511592966</v>
       </c>
       <c r="AB2" t="n">
-        <v>224.911203671109</v>
+        <v>271.8410324239168</v>
       </c>
       <c r="AC2" t="n">
-        <v>203.44599405766</v>
+        <v>245.896905820743</v>
       </c>
       <c r="AD2" t="n">
-        <v>164379.4414282041</v>
+        <v>198678.7511592966</v>
       </c>
       <c r="AE2" t="n">
-        <v>224911.203671109</v>
+        <v>271841.0324239168</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.396449081663297e-06</v>
+        <v>6.808726895170694e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.319878472222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>203445.99405766</v>
+        <v>245896.905820743</v>
       </c>
     </row>
   </sheetData>
@@ -4205,28 +4205,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>153.1996137578512</v>
+        <v>182.6423689907956</v>
       </c>
       <c r="AB2" t="n">
-        <v>209.6144702333526</v>
+        <v>249.8993468657345</v>
       </c>
       <c r="AC2" t="n">
-        <v>189.6091593900979</v>
+        <v>226.0493039368776</v>
       </c>
       <c r="AD2" t="n">
-        <v>153199.6137578512</v>
+        <v>182642.3689907956</v>
       </c>
       <c r="AE2" t="n">
-        <v>209614.4702333526</v>
+        <v>249899.3468657345</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.834349290989146e-06</v>
+        <v>6.790917512950616e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.631510416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>189609.1593900979</v>
+        <v>226049.3039368776</v>
       </c>
     </row>
     <row r="3">
@@ -4311,28 +4311,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>140.0951879647387</v>
+        <v>159.7237809619193</v>
       </c>
       <c r="AB3" t="n">
-        <v>191.6844167367612</v>
+        <v>218.5411236278975</v>
       </c>
       <c r="AC3" t="n">
-        <v>173.3903250342274</v>
+        <v>197.6838655133071</v>
       </c>
       <c r="AD3" t="n">
-        <v>140095.1879647387</v>
+        <v>159723.7809619193</v>
       </c>
       <c r="AE3" t="n">
-        <v>191684.4167367612</v>
+        <v>218541.1236278975</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.102836337447548e-06</v>
+        <v>7.266428022668526e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.262586805555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>173390.3250342274</v>
+        <v>197683.8655133071</v>
       </c>
     </row>
   </sheetData>
@@ -4608,28 +4608,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>192.2353180740403</v>
+        <v>222.1566418094963</v>
       </c>
       <c r="AB2" t="n">
-        <v>263.0248430124682</v>
+        <v>303.9645181829382</v>
       </c>
       <c r="AC2" t="n">
-        <v>237.9221211531207</v>
+        <v>274.9545711845291</v>
       </c>
       <c r="AD2" t="n">
-        <v>192235.3180740403</v>
+        <v>222156.6418094963</v>
       </c>
       <c r="AE2" t="n">
-        <v>263024.8430124682</v>
+        <v>303964.5181829382</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.42684983088095e-06</v>
+        <v>5.976126875255689e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.174045138888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>237922.1211531207</v>
+        <v>274954.5711845291</v>
       </c>
     </row>
     <row r="3">
@@ -4714,28 +4714,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>142.8369984774749</v>
+        <v>162.841471373677</v>
       </c>
       <c r="AB3" t="n">
-        <v>195.435882840428</v>
+        <v>222.8068851920559</v>
       </c>
       <c r="AC3" t="n">
-        <v>176.7837564781771</v>
+        <v>201.5425087808175</v>
       </c>
       <c r="AD3" t="n">
-        <v>142836.9984774749</v>
+        <v>162841.471373677</v>
       </c>
       <c r="AE3" t="n">
-        <v>195435.882840428</v>
+        <v>222806.8851920559</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.095819747505151e-06</v>
+        <v>7.142751995927438e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.167100694444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>176783.7564781772</v>
+        <v>201542.5087808175</v>
       </c>
     </row>
   </sheetData>
@@ -5011,28 +5011,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>276.4853955400434</v>
+        <v>317.6645046348487</v>
       </c>
       <c r="AB2" t="n">
-        <v>378.299515852671</v>
+        <v>434.642589610261</v>
       </c>
       <c r="AC2" t="n">
-        <v>342.1951410063965</v>
+        <v>393.1609108825627</v>
       </c>
       <c r="AD2" t="n">
-        <v>276485.3955400434</v>
+        <v>317664.5046348487</v>
       </c>
       <c r="AE2" t="n">
-        <v>378299.5158526711</v>
+        <v>434642.589610261</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.744600067749688e-06</v>
+        <v>4.665638213020825e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.44140625</v>
       </c>
       <c r="AH2" t="n">
-        <v>342195.1410063965</v>
+        <v>393160.9108825627</v>
       </c>
     </row>
     <row r="3">
@@ -5117,28 +5117,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>148.8660749565806</v>
+        <v>169.5410151128301</v>
       </c>
       <c r="AB3" t="n">
-        <v>203.6851312632183</v>
+        <v>231.9734964989706</v>
       </c>
       <c r="AC3" t="n">
-        <v>184.2457082093919</v>
+        <v>209.8342715700229</v>
       </c>
       <c r="AD3" t="n">
-        <v>148866.0749565806</v>
+        <v>169541.0151128301</v>
       </c>
       <c r="AE3" t="n">
-        <v>203685.1312632183</v>
+        <v>231973.4964989706</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.056903443420972e-06</v>
+        <v>6.896466976946427e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.034722222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>184245.7082093919</v>
+        <v>209834.2715700229</v>
       </c>
     </row>
     <row r="4">
@@ -5223,28 +5223,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>149.915791890323</v>
+        <v>170.5907320465724</v>
       </c>
       <c r="AB4" t="n">
-        <v>205.1214002822065</v>
+        <v>233.4097655179588</v>
       </c>
       <c r="AC4" t="n">
-        <v>185.5449017290245</v>
+        <v>211.1334650896556</v>
       </c>
       <c r="AD4" t="n">
-        <v>149915.791890323</v>
+        <v>170590.7320465724</v>
       </c>
       <c r="AE4" t="n">
-        <v>205121.4002822065</v>
+        <v>233409.7655179588</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.045327617602874e-06</v>
+        <v>6.876788840259477e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.047743055555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>185544.9017290245</v>
+        <v>211133.4650896556</v>
       </c>
     </row>
   </sheetData>
@@ -5520,28 +5520,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>137.7722979201226</v>
+        <v>166.426144802992</v>
       </c>
       <c r="AB2" t="n">
-        <v>188.5061360990429</v>
+        <v>227.7115935226726</v>
       </c>
       <c r="AC2" t="n">
-        <v>170.515375039827</v>
+        <v>205.9791186321631</v>
       </c>
       <c r="AD2" t="n">
-        <v>137772.2979201226</v>
+        <v>166426.144802992</v>
       </c>
       <c r="AE2" t="n">
-        <v>188506.1360990429</v>
+        <v>227711.5935226726</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.073627197703599e-06</v>
+        <v>7.345713820365287e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.423177083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>170515.375039827</v>
+        <v>205979.1186321631</v>
       </c>
     </row>
     <row r="3">
@@ -5626,28 +5626,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>137.8855393547995</v>
+        <v>166.5393862376689</v>
       </c>
       <c r="AB3" t="n">
-        <v>188.6610780258273</v>
+        <v>227.866535449457</v>
       </c>
       <c r="AC3" t="n">
-        <v>170.6555295265815</v>
+        <v>206.1192731189176</v>
       </c>
       <c r="AD3" t="n">
-        <v>137885.5393547995</v>
+        <v>166539.3862376689</v>
       </c>
       <c r="AE3" t="n">
-        <v>188661.0780258273</v>
+        <v>227866.535449457</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.082994198508116e-06</v>
+        <v>7.362604739422364e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.412326388888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>170655.5295265816</v>
+        <v>206119.2731189176</v>
       </c>
     </row>
   </sheetData>
@@ -5923,28 +5923,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>136.5541706774823</v>
+        <v>164.3093321759106</v>
       </c>
       <c r="AB2" t="n">
-        <v>186.8394406656822</v>
+        <v>224.8152770991193</v>
       </c>
       <c r="AC2" t="n">
-        <v>169.007746679404</v>
+        <v>203.3592225830672</v>
       </c>
       <c r="AD2" t="n">
-        <v>136554.1706774823</v>
+        <v>164309.3321759106</v>
       </c>
       <c r="AE2" t="n">
-        <v>186839.4406656822</v>
+        <v>224815.2770991193</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.95775575733605e-06</v>
+        <v>7.383907175302895e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.815972222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>169007.746679404</v>
+        <v>203359.2225830671</v>
       </c>
     </row>
   </sheetData>
@@ -9617,28 +9617,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>147.7672954385078</v>
+        <v>174.582512031965</v>
       </c>
       <c r="AB2" t="n">
-        <v>202.1817326518607</v>
+        <v>238.8714949988743</v>
       </c>
       <c r="AC2" t="n">
-        <v>182.8857918514686</v>
+        <v>216.0739347744997</v>
       </c>
       <c r="AD2" t="n">
-        <v>147767.2954385078</v>
+        <v>174582.512031965</v>
       </c>
       <c r="AE2" t="n">
-        <v>202181.7326518607</v>
+        <v>238871.4949988743</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.771563351523843e-06</v>
+        <v>7.252856188156307e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.312934027777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>182885.7918514686</v>
+        <v>216073.9347744997</v>
       </c>
     </row>
   </sheetData>
@@ -9914,28 +9914,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>183.9706191576867</v>
+        <v>217.4936348120762</v>
       </c>
       <c r="AB2" t="n">
-        <v>251.7167173423357</v>
+        <v>297.5843862917214</v>
       </c>
       <c r="AC2" t="n">
-        <v>227.6932271258881</v>
+        <v>269.1833501264367</v>
       </c>
       <c r="AD2" t="n">
-        <v>183970.6191576867</v>
+        <v>217493.6348120762</v>
       </c>
       <c r="AE2" t="n">
-        <v>251716.7173423357</v>
+        <v>297584.3862917214</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.039001793424828e-06</v>
+        <v>6.268243036738208e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.409288194444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>227693.2271258881</v>
+        <v>269183.3501264367</v>
       </c>
     </row>
   </sheetData>
@@ -10211,28 +10211,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>167.4707426597427</v>
+        <v>197.2014205703044</v>
       </c>
       <c r="AB2" t="n">
-        <v>229.1408583946832</v>
+        <v>269.8196835368329</v>
       </c>
       <c r="AC2" t="n">
-        <v>207.2719764707753</v>
+        <v>244.0684716344609</v>
       </c>
       <c r="AD2" t="n">
-        <v>167470.7426597427</v>
+        <v>197201.4205703044</v>
       </c>
       <c r="AE2" t="n">
-        <v>229140.8583946832</v>
+        <v>269819.6835368329</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.621084173620339e-06</v>
+        <v>6.362102049334564e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.902777777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>207271.9764707753</v>
+        <v>244068.4716344609</v>
       </c>
     </row>
     <row r="3">
@@ -10317,28 +10317,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>141.4239240958678</v>
+        <v>161.2444655447933</v>
       </c>
       <c r="AB3" t="n">
-        <v>193.5024521310721</v>
+        <v>220.6217913620536</v>
       </c>
       <c r="AC3" t="n">
-        <v>175.0348496821345</v>
+        <v>199.5659572391515</v>
       </c>
       <c r="AD3" t="n">
-        <v>141423.9240958678</v>
+        <v>161244.4655447933</v>
       </c>
       <c r="AE3" t="n">
-        <v>193502.4521310721</v>
+        <v>220621.7913620536</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.100665363295112e-06</v>
+        <v>7.204707281181926e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.212673611111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>175034.8496821345</v>
+        <v>199565.9572391515</v>
       </c>
     </row>
   </sheetData>
@@ -10614,28 +10614,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>256.5211343798064</v>
+        <v>287.2949442056074</v>
       </c>
       <c r="AB2" t="n">
-        <v>350.9835329720274</v>
+        <v>393.0896172205259</v>
       </c>
       <c r="AC2" t="n">
-        <v>317.4861571937644</v>
+        <v>355.5736958577409</v>
       </c>
       <c r="AD2" t="n">
-        <v>256521.1343798064</v>
+        <v>287294.9442056073</v>
       </c>
       <c r="AE2" t="n">
-        <v>350983.5329720274</v>
+        <v>393089.6172205259</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.892406143186393e-06</v>
+        <v>4.945692168179312e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.120225694444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>317486.1571937643</v>
+        <v>355573.6958577409</v>
       </c>
     </row>
     <row r="3">
@@ -10720,28 +10720,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>147.1917444689782</v>
+        <v>167.70764752236</v>
       </c>
       <c r="AB3" t="n">
-        <v>201.3942384238339</v>
+        <v>229.465002079221</v>
       </c>
       <c r="AC3" t="n">
-        <v>182.1734549673093</v>
+        <v>207.5651843369994</v>
       </c>
       <c r="AD3" t="n">
-        <v>147191.7444689782</v>
+        <v>167707.64752236</v>
       </c>
       <c r="AE3" t="n">
-        <v>201394.2384238339</v>
+        <v>229465.002079221</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.071668975908745e-06</v>
+        <v>6.962100192259507e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.05859375</v>
       </c>
       <c r="AH3" t="n">
-        <v>182173.4549673093</v>
+        <v>207565.1843369994</v>
       </c>
     </row>
   </sheetData>
@@ -11017,28 +11017,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>224.1431492952071</v>
+        <v>272.8853792411218</v>
       </c>
       <c r="AB2" t="n">
-        <v>306.6825453634115</v>
+        <v>373.3738147309763</v>
       </c>
       <c r="AC2" t="n">
-        <v>277.413193665674</v>
+        <v>337.7395418864915</v>
       </c>
       <c r="AD2" t="n">
-        <v>224143.1492952071</v>
+        <v>272885.3792411218</v>
       </c>
       <c r="AE2" t="n">
-        <v>306682.5453634115</v>
+        <v>373373.8147309764</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.469667271675984e-06</v>
+        <v>5.293634468389847e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.71397569444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>277413.193665674</v>
+        <v>337739.5418864915</v>
       </c>
     </row>
   </sheetData>
@@ -11314,28 +11314,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>136.2139207666839</v>
+        <v>164.3486526919217</v>
       </c>
       <c r="AB2" t="n">
-        <v>186.3738957269613</v>
+        <v>224.8690771638242</v>
       </c>
       <c r="AC2" t="n">
-        <v>168.5866326962381</v>
+        <v>203.4078880451056</v>
       </c>
       <c r="AD2" t="n">
-        <v>136213.9207666839</v>
+        <v>164348.6526919217</v>
       </c>
       <c r="AE2" t="n">
-        <v>186373.8957269613</v>
+        <v>224869.0771638242</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.021301936199561e-06</v>
+        <v>7.408977520730889e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.640190972222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>168586.6326962381</v>
+        <v>203407.8880451056</v>
       </c>
     </row>
   </sheetData>
@@ -11611,28 +11611,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>142.4861108157852</v>
+        <v>171.4568113378997</v>
       </c>
       <c r="AB2" t="n">
-        <v>194.9557828616332</v>
+        <v>234.5947734130739</v>
       </c>
       <c r="AC2" t="n">
-        <v>176.3494765675339</v>
+        <v>212.2053774944303</v>
       </c>
       <c r="AD2" t="n">
-        <v>142486.1108157852</v>
+        <v>171456.8113378997</v>
       </c>
       <c r="AE2" t="n">
-        <v>194955.7828616332</v>
+        <v>234594.7734130739</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.010108377132845e-06</v>
+        <v>7.163765964933546e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.444878472222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>176349.4765675339</v>
+        <v>212205.3774944303</v>
       </c>
     </row>
     <row r="3">
@@ -11717,28 +11717,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>138.8813323936467</v>
+        <v>167.8520329157612</v>
       </c>
       <c r="AB3" t="n">
-        <v>190.0235659928656</v>
+        <v>229.6625565443063</v>
       </c>
       <c r="AC3" t="n">
-        <v>171.88798355431</v>
+        <v>207.7438844812065</v>
       </c>
       <c r="AD3" t="n">
-        <v>138881.3323936466</v>
+        <v>167852.0329157612</v>
       </c>
       <c r="AE3" t="n">
-        <v>190023.5659928656</v>
+        <v>229662.5565443063</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.096643724643302e-06</v>
+        <v>7.318355048060108e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.329861111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>171887.98355431</v>
+        <v>207743.8844812065</v>
       </c>
     </row>
   </sheetData>
